--- a/data/chap5/5.1.xlsx
+++ b/data/chap5/5.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Myfolders\桌面\free-excel-main\data\chap5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\free-excel\data\chap5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7519D6-3B5B-4D31-897C-9BC240174636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F923492F-25DD-492C-B1C5-8B897130E0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="828" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="828" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="案例1" sheetId="89" r:id="rId1"/>
@@ -19,9 +19,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -29,106 +26,86 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>姓名</t>
   </si>
   <si>
+    <t>原始得分</t>
+  </si>
+  <si>
+    <t>校正得分</t>
+  </si>
+  <si>
+    <t>客户1</t>
+  </si>
+  <si>
+    <t>客户2</t>
+  </si>
+  <si>
+    <t>客户3</t>
+  </si>
+  <si>
+    <t>客户4</t>
+  </si>
+  <si>
+    <t>客户5</t>
+  </si>
+  <si>
+    <t>客户6</t>
+  </si>
+  <si>
+    <t>客户7</t>
+  </si>
+  <si>
+    <t>客户8</t>
+  </si>
+  <si>
+    <t>客户9</t>
+  </si>
+  <si>
+    <t>客户10</t>
+  </si>
+  <si>
+    <t>1月消费</t>
+  </si>
+  <si>
+    <t>2月消费</t>
+  </si>
+  <si>
+    <t>判断</t>
+  </si>
+  <si>
     <t>考核得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>所属等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校正得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户2</t>
-  </si>
-  <si>
-    <t>客户3</t>
-  </si>
-  <si>
-    <t>客户4</t>
-  </si>
-  <si>
-    <t>客户5</t>
-  </si>
-  <si>
-    <t>客户6</t>
-  </si>
-  <si>
-    <t>客户7</t>
-  </si>
-  <si>
-    <t>客户8</t>
-  </si>
-  <si>
-    <t>客户9</t>
-  </si>
-  <si>
-    <t>客户10</t>
-  </si>
-  <si>
-    <t>1月消费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月消费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核得分在4.8分以上，优秀</t>
   </si>
   <si>
     <t>员工1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核得分在3.5-4.7分，良好；</t>
   </si>
   <si>
     <t>员工2</t>
   </si>
   <si>
+    <t>考核得分在0-3.4分，一般。</t>
+  </si>
+  <si>
     <t>员工3</t>
   </si>
   <si>
@@ -151,18 +128,6 @@
   </si>
   <si>
     <t>员工10</t>
-  </si>
-  <si>
-    <t>考核得分在4.8分以上，优秀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考核得分在3.5-4.7分，良好；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考核得分在0-3.4分，一般。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -177,49 +142,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -227,12 +156,43 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF404040"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -263,64 +223,61 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{75604DFE-431E-4779-9BD1-29A61B810A78}"/>
-    <cellStyle name="常规 2 2" xfId="2" xr:uid="{BB6356AF-EE0C-454A-8EBF-C0B6D70A8D36}"/>
-    <cellStyle name="常规 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="超链接 2 2" xfId="5" xr:uid="{D6638355-B71C-4B63-83D7-F356981DFE0E}"/>
+    <cellStyle name="常规 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="常规 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="超链接 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -329,7 +286,7 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -340,7 +297,7 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -373,7 +330,7 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -413,72 +370,6 @@
     </tableStyle>
   </tableStyles>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FF1E80B5"/>
       <color rgb="FF00A4DC"/>
@@ -509,7 +400,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -694,484 +585,555 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9E58EE-8A37-4616-8D09-C263D1F3C592}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.26953125" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="7.21875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="7.26953125" style="1"/>
+    <col min="1" max="3" width="10.109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="7.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="18">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
         <v>-1</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="4">
+        <f>IF(B2&lt;0,0,B2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C11" si="0">IF(B3&lt;0,0,B3)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6">
         <v>5</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="B4" s="5">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="6">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5">
         <v>-3</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="6">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5">
         <v>4</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="6">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5">
         <v>-2</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC5D610-B404-4E2D-8403-515623DB9D3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.26953125" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="7.21875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.08984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="7.26953125" style="1"/>
+    <col min="1" max="4" width="10.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="7.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
         <v>705</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>440</v>
       </c>
-      <c r="D2" s="7" t="str">
+      <c r="D2" s="4" t="str">
         <f>IF(AND(B2&gt;400,C2&gt;400),"高消费客户","")</f>
         <v>高消费客户</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
         <v>466</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>397</v>
       </c>
-      <c r="D3" s="7" t="str">
-        <f t="shared" ref="D3:D11" si="0">IF(AND(B3&gt;400,C3&gt;400),"高消费客户","")</f>
+      <c r="D3" s="4" t="str">
+        <f>IF(AND(B3&gt;400,C3&gt;400),"高消费客户","")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
         <v>263</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>534</v>
       </c>
-      <c r="D4" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="D4" s="4" t="str">
+        <f>IF(AND(B4&gt;400,C4&gt;400),"高消费客户","")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
         <v>887</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>824</v>
       </c>
-      <c r="D5" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="D5" s="4" t="str">
+        <f>IF(AND(B5&gt;400,C5&gt;400),"高消费客户","")</f>
         <v>高消费客户</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
         <v>238</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>956</v>
       </c>
-      <c r="D6" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="D6" s="4" t="str">
+        <f t="shared" ref="D6:D11" si="0">IF(AND(B6&gt;400,C6&gt;400),"高消费客户","")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
         <v>867</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>204</v>
       </c>
-      <c r="D7" s="7" t="str">
+      <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
         <v>201</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>987</v>
       </c>
-      <c r="D8" s="7" t="str">
+      <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
         <v>92</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>977</v>
       </c>
-      <c r="D9" s="7" t="str">
+      <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4">
         <v>298</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>508</v>
       </c>
-      <c r="D10" s="7" t="str">
+      <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
         <v>348</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>793</v>
       </c>
-      <c r="D11" s="7" t="str">
+      <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591E63ED-C1E4-40D1-87B9-E508D6F4EC4B}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.26953125" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="7.21875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.26953125" style="1"/>
-    <col min="5" max="5" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="7.26953125" style="1"/>
+    <col min="1" max="5" width="10.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" style="1"/>
+    <col min="7" max="7" width="29" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="7.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="20.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f t="shared" ref="C2:C10" si="0">_xlfn.IFS(B2&lt;=3.4,"一般",AND(B2&gt;=3.5,B2&lt;=4.7),"良好",B2&gt;=4.8,"优秀")</f>
+        <v>良好</v>
+      </c>
+      <c r="D2" s="7" t="str">
+        <f>IF(B2&lt;3.4,"一般",IF(B2&lt;4.7,"良好","优秀"))</f>
+        <v>良好</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>优秀</v>
+      </c>
+      <c r="D3" s="7" t="str">
+        <f t="shared" ref="D3:D11" si="1">IF(B3&lt;3.4,"一般",IF(B3&lt;4.7,"良好","优秀"))</f>
+        <v>优秀</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>一般</v>
+      </c>
+      <c r="D4" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>一般</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>良好</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>良好</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>优秀</v>
+      </c>
+      <c r="D6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>优秀</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>良好</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>良好</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>良好</v>
+      </c>
+      <c r="D8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>良好</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.2">
-      <c r="A2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="C2" s="7" t="str" cm="1">
-        <f t="array" ref="C2">_xlfn.IFS(B3&lt;=3.4,"一般",AND(B3&gt;=3.5,B3&lt;=4.7),"良好",B3&gt;=4.8,"优秀")</f>
+      <c r="B9" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>一般</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>一般</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>优秀</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.2">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C3" s="7" t="str" cm="1">
-        <f t="array" ref="C3">_xlfn.IFS(B4&lt;=3.4,"一般",AND(B4&gt;=3.5,B4&lt;=4.7),"良好",B4&gt;=4.8,"优秀")</f>
+      <c r="D10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>优秀</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f t="shared" ref="C11" si="2">_xlfn.IFS(B11&lt;=3.4,"一般",AND(B11&gt;=3.5,B11&lt;=4.7),"良好",B11&gt;=4.8,"优秀")</f>
         <v>一般</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6">
-        <v>3.2</v>
-      </c>
-      <c r="C4" s="7" t="str" cm="1">
-        <f t="array" ref="C4">_xlfn.IFS(B5&lt;=3.4,"一般",AND(B5&gt;=3.5,B5&lt;=4.7),"良好",B5&gt;=4.8,"优秀")</f>
-        <v>良好</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="C5" s="7" t="str" cm="1">
-        <f t="array" ref="C5">_xlfn.IFS(B6&lt;=3.4,"一般",AND(B6&gt;=3.5,B6&lt;=4.7),"良好",B6&gt;=4.8,"优秀")</f>
-        <v>优秀</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="C6" s="7" t="str" cm="1">
-        <f t="array" ref="C6">_xlfn.IFS(B7&lt;=3.4,"一般",AND(B7&gt;=3.5,B7&lt;=4.7),"良好",B7&gt;=4.8,"优秀")</f>
-        <v>良好</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="C7" s="7" t="str" cm="1">
-        <f t="array" ref="C7">_xlfn.IFS(B8&lt;=3.4,"一般",AND(B8&gt;=3.5,B8&lt;=4.7),"良好",B8&gt;=4.8,"优秀")</f>
-        <v>良好</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="6">
-        <v>4</v>
-      </c>
-      <c r="C8" s="7" t="str" cm="1">
-        <f t="array" ref="C8">_xlfn.IFS(B9&lt;=3.4,"一般",AND(B9&gt;=3.5,B9&lt;=4.7),"良好",B9&gt;=4.8,"优秀")</f>
+      <c r="D11" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>一般</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="C9" s="7" t="str" cm="1">
-        <f t="array" ref="C9">_xlfn.IFS(B10&lt;=3.4,"一般",AND(B10&gt;=3.5,B10&lt;=4.7),"良好",B10&gt;=4.8,"优秀")</f>
-        <v>优秀</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="C10" s="7" t="str" cm="1">
-        <f t="array" ref="C10">_xlfn.IFS(B11&lt;=3.4,"一般",AND(B11&gt;=3.5,B11&lt;=4.7),"良好",B11&gt;=4.8,"优秀")</f>
-        <v>一般</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="C11" s="7" t="str" cm="1">
-        <f t="array" ref="C11">_xlfn.IFS(B12&lt;=3.4,"一般",AND(B12&gt;=3.5,B12&lt;=4.7),"良好",B12&gt;=4.8,"优秀")</f>
-        <v>一般</v>
-      </c>
+      <c r="E11" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
